--- a/32/specific exemplars_new.xlsx
+++ b/32/specific exemplars_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisweinberger/Documents/cogNeuroResearch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\cogNeuroResearch\cogNeuro\32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9CC3FA9D-1140-8A47-A452-320D27666F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F077D0-D2B2-4F26-8DA5-EDED0AAD6D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specific exemplars_new" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1061,19 +1061,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ63" sqref="AJ63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="W69" sqref="W69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="33" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="W1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1">
         <v>0</v>
       </c>
       <c r="Y1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z1">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -1380,11 +1380,11 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI34" si="0">CORREL(B3:AG3,B4:AG4)</f>
+        <f t="shared" ref="AI3" si="0">CORREL(B3:AG3,B4:AG4)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1392,13 +1392,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1505,19 +1505,19 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1586,11 +1586,11 @@
         <v>1</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5:AI36" si="1">CORREL(B5:AG5,B6:AG6)</f>
+        <f t="shared" ref="AI5" si="1">CORREL(B5:AG5,B6:AG6)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -1792,11 +1792,11 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" ref="AI7:AI38" si="2">CORREL(B7:AG7,B8:AG8)</f>
+        <f t="shared" ref="AI7" si="2">CORREL(B7:AG7,B8:AG8)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1807,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1998,11 +1998,11 @@
         <v>1</v>
       </c>
       <c r="AI9">
-        <f t="shared" ref="AI9:AI40" si="3">CORREL(B9:AG9,B10:AG10)</f>
+        <f t="shared" ref="AI9" si="3">CORREL(B9:AG9,B10:AG10)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2198,17 +2198,17 @@
         <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" ref="AI11:AI42" si="4">CORREL(B11:AG11,B12:AG12)</f>
+        <f t="shared" ref="AI11" si="4">CORREL(B11:AG11,B12:AG12)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2383,13 +2383,13 @@
         <v>1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -2410,11 +2410,11 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" ref="AI13:AI44" si="5">CORREL(B13:AG13,B14:AG14)</f>
+        <f t="shared" ref="AI13" si="5">CORREL(B13:AG13,B14:AG14)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2461,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -2595,10 +2595,10 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2616,11 +2616,11 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" ref="AI15:AI46" si="6">CORREL(B15:AG15,B16:AG16)</f>
+        <f t="shared" ref="AI15" si="6">CORREL(B15:AG15,B16:AG16)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2744,19 +2744,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -2822,11 +2822,11 @@
         <v>1</v>
       </c>
       <c r="AI17">
-        <f t="shared" ref="AI17:AI64" si="7">CORREL(B17:AG17,B18:AG18)</f>
+        <f t="shared" ref="AI17" si="7">CORREL(B17:AG17,B18:AG18)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -3019,20 +3019,20 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
-        <f t="shared" ref="AI19:AI64" si="8">CORREL(B19:AG19,B20:AG20)</f>
+        <f t="shared" ref="AI19" si="8">CORREL(B19:AG19,B20:AG20)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3127,13 +3127,13 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3171,16 +3171,16 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -3231,14 +3231,14 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <f t="shared" ref="AI21:AI64" si="9">CORREL(B21:AG21,B22:AG22)</f>
+        <f t="shared" ref="AI21" si="9">CORREL(B21:AG21,B22:AG22)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3246,22 +3246,22 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3350,19 +3350,19 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>1</v>
@@ -3440,11 +3440,11 @@
         <v>1</v>
       </c>
       <c r="AI23">
-        <f t="shared" ref="AI23:AI64" si="10">CORREL(B23:AG23,B24:AG24)</f>
+        <f t="shared" ref="AI23" si="10">CORREL(B23:AG23,B24:AG24)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -3643,14 +3643,14 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <f t="shared" ref="AI25:AI64" si="11">CORREL(B25:AG25,B26:AG26)</f>
+        <f t="shared" ref="AI25" si="11">CORREL(B25:AG25,B26:AG26)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>1</v>
@@ -3745,13 +3745,13 @@
         <v>1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>1</v>
@@ -3852,11 +3852,11 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <f t="shared" ref="AI27:AI64" si="12">CORREL(B27:AG27,B28:AG28)</f>
+        <f t="shared" ref="AI27" si="12">CORREL(B27:AG27,B28:AG28)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
         <v>1</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -4058,11 +4058,11 @@
         <v>1</v>
       </c>
       <c r="AI29">
-        <f t="shared" ref="AI29:AI64" si="13">CORREL(B29:AG29,B30:AG30)</f>
+        <f t="shared" ref="AI29" si="13">CORREL(B29:AG29,B30:AG30)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
         <v>1</v>
@@ -4163,15 +4163,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -4264,11 +4264,11 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <f t="shared" ref="AI31:AI64" si="14">CORREL(B31:AG31,B32:AG32)</f>
+        <f t="shared" ref="AI31" si="14">CORREL(B31:AG31,B32:AG32)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -4470,11 +4470,11 @@
         <v>1</v>
       </c>
       <c r="AI33">
-        <f t="shared" ref="AI33:AI64" si="15">CORREL(B33:AG33,B34:AG34)</f>
+        <f t="shared" ref="AI33" si="15">CORREL(B33:AG33,B34:AG34)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -4572,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4664,23 +4664,23 @@
         <v>1</v>
       </c>
       <c r="AD35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
         <v>1</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35">
         <v>1</v>
       </c>
       <c r="AI35">
-        <f t="shared" ref="AI35:AI64" si="16">CORREL(B35:AG35,B36:AG36)</f>
+        <f t="shared" ref="AI35" si="16">CORREL(B35:AG35,B36:AG36)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -4736,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -4870,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -4882,11 +4882,11 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <f t="shared" ref="AI37:AI64" si="17">CORREL(B37:AG37,B38:AG38)</f>
+        <f t="shared" ref="AI37" si="17">CORREL(B37:AG37,B38:AG38)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -4981,18 +4981,18 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
         <v>1</v>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -5088,11 +5088,11 @@
         <v>1</v>
       </c>
       <c r="AI39">
-        <f t="shared" ref="AI39:AI64" si="18">CORREL(B39:AG39,B40:AG40)</f>
+        <f t="shared" ref="AI39" si="18">CORREL(B39:AG39,B40:AG40)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -5175,16 +5175,16 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5228,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -5282,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="AD41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -5294,11 +5294,11 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <f t="shared" ref="AI41:AI64" si="19">CORREL(B41:AG41,B42:AG42)</f>
+        <f t="shared" ref="AI41" si="19">CORREL(B41:AG41,B42:AG42)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -5399,12 +5399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5476,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>1</v>
@@ -5497,14 +5497,14 @@
         <v>1</v>
       </c>
       <c r="AG43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43:AI64" si="20">CORREL(B43:AG43,B44:AG44)</f>
+        <f t="shared" ref="AI43" si="20">CORREL(B43:AG43,B44:AG44)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>1</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -5700,17 +5700,17 @@
         <v>1</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45">
         <v>1</v>
       </c>
       <c r="AI45">
-        <f t="shared" ref="AI45:AI64" si="21">CORREL(B45:AG45,B46:AG46)</f>
+        <f t="shared" ref="AI45" si="21">CORREL(B45:AG45,B46:AG46)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5751,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -5906,17 +5906,17 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG47">
         <v>1</v>
       </c>
       <c r="AI47">
-        <f t="shared" ref="AI47:AI64" si="22">CORREL(B47:AG47,B48:AG48)</f>
+        <f t="shared" ref="AI47" si="22">CORREL(B47:AG47,B48:AG48)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5930,13 +5930,13 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5945,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -6017,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49">
         <v>1</v>
@@ -6103,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -6118,11 +6118,11 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <f t="shared" ref="AI49:AI64" si="23">CORREL(B49:AG49,B50:AG50)</f>
+        <f t="shared" ref="AI49" si="23">CORREL(B49:AG49,B50:AG50)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <v>1</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -6300,10 +6300,10 @@
         <v>1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>1</v>
@@ -6324,11 +6324,11 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <f t="shared" ref="AI51:AI64" si="24">CORREL(B51:AG51,B52:AG52)</f>
+        <f t="shared" ref="AI51" si="24">CORREL(B51:AG51,B52:AG52)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6443,13 +6443,13 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -6497,13 +6497,13 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>1</v>
@@ -6530,11 +6530,11 @@
         <v>1</v>
       </c>
       <c r="AI53">
-        <f t="shared" ref="AI53:AI64" si="25">CORREL(B53:AG53,B54:AG54)</f>
+        <f t="shared" ref="AI53" si="25">CORREL(B53:AG53,B54:AG54)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -6545,13 +6545,13 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -6599,13 +6599,13 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54">
         <v>1</v>
       </c>
       <c r="X54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -6667,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>1</v>
@@ -6736,11 +6736,11 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <f t="shared" ref="AI55:AI64" si="26">CORREL(B55:AG55,B56:AG56)</f>
+        <f t="shared" ref="AI55" si="26">CORREL(B55:AG55,B56:AG56)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6793,13 +6793,13 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56">
         <v>1</v>
@@ -6823,10 +6823,10 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -6861,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>1</v>
@@ -6942,11 +6942,11 @@
         <v>1</v>
       </c>
       <c r="AI57">
-        <f t="shared" ref="AI57:AI64" si="27">CORREL(B57:AG57,B58:AG58)</f>
+        <f t="shared" ref="AI57" si="27">CORREL(B57:AG57,B58:AG58)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -7041,13 +7041,13 @@
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -7061,10 +7061,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>1</v>
@@ -7148,11 +7148,11 @@
         <v>1</v>
       </c>
       <c r="AI59">
-        <f t="shared" ref="AI59:AI64" si="28">CORREL(B59:AG59,B60:AG60)</f>
+        <f t="shared" ref="AI59" si="28">CORREL(B59:AG59,B60:AG60)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -7178,10 +7178,10 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60">
         <v>1</v>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE61">
         <v>1</v>
@@ -7354,11 +7354,11 @@
         <v>0</v>
       </c>
       <c r="AI61">
-        <f t="shared" ref="AI61:AI64" si="29">CORREL(B61:AG61,B62:AG62)</f>
+        <f t="shared" ref="AI61" si="29">CORREL(B61:AG61,B62:AG62)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -7470,49 +7470,49 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>1</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -7521,16 +7521,16 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63">
         <v>1</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y63">
         <v>1</v>
@@ -7539,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -7548,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63">
         <v>1</v>
@@ -7557,14 +7557,14 @@
         <v>1</v>
       </c>
       <c r="AG63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63">
-        <f t="shared" ref="AI63:AI64" si="30">CORREL(B63:AG63,B64:AG64)</f>
-        <v>0.75</v>
+        <f t="shared" ref="AI63" si="30">CORREL(B63:AG63,B64:AG64)</f>
+        <v>-6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -7572,16 +7572,16 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -7590,10 +7590,10 @@
         <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -7602,16 +7602,16 @@
         <v>1</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -7626,43 +7626,43 @@
         <v>1</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64">
         <v>1</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
         <v>1</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/32/specific exemplars_new.xlsx
+++ b/32/specific exemplars_new.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\cogNeuroResearch\cogNeuro\32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisweinberger/Documents/cogNeuroResearch/cogNeuro/32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F077D0-D2B2-4F26-8DA5-EDED0AAD6D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44176EBF-4FCD-D047-8A7F-C421488F697B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="640" windowWidth="21860" windowHeight="19540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specific exemplars_new" sheetId="1" r:id="rId1"/>
+    <sheet name="sixteen_selected" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>1a</t>
   </si>
@@ -228,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,6 +360,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -705,8 +713,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,16 +1073,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="W69" sqref="W69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="33" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1805,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2414,7 +2423,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2927,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3032,7 +3041,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3751,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3856,7 +3865,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3957,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4062,7 +4071,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4163,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4268,7 +4277,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4474,7 +4483,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4680,7 +4689,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4987,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5092,7 +5101,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5193,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5298,7 +5307,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5399,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5504,7 +5513,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5605,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5710,7 +5719,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5811,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5916,7 +5925,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6017,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -6223,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6328,7 +6337,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6429,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -6534,7 +6543,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -6635,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -6740,7 +6749,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6841,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -6946,7 +6955,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -7047,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -7152,7 +7161,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -7253,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -7358,7 +7367,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -7459,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -7564,7 +7573,7 @@
         <v>-6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -7668,4 +7677,3350 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3119604E-45F9-F843-A903-89D0570F901C}">
+  <dimension ref="A1:AI32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="33" width="3.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1">
+        <v>0</v>
+      </c>
+      <c r="V1" s="1">
+        <v>0</v>
+      </c>
+      <c r="W1" s="1">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/32/specific exemplars_new.xlsx
+++ b/32/specific exemplars_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisweinberger/Documents/cogNeuroResearch/cogNeuro/32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44176EBF-4FCD-D047-8A7F-C421488F697B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC5DF64-9E86-7640-BB2E-E502727C8169}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="640" windowWidth="21860" windowHeight="19540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5320" yWindow="460" windowWidth="21860" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="specific exemplars_new" sheetId="1" r:id="rId1"/>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1287,6 +1287,10 @@
       <c r="AG2">
         <v>0</v>
       </c>
+      <c r="AI2">
+        <f>CORREL(B2:AG2,B3:AG3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1389,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3" si="0">CORREL(B3:AG3,B4:AG4)</f>
+        <f>CORREL(B3:AG3,B4:AG4)</f>
         <v>0.75</v>
       </c>
     </row>
@@ -1493,6 +1497,10 @@
       <c r="AG4">
         <v>0</v>
       </c>
+      <c r="AI4">
+        <f>CORREL(B4:AG4,B5:AG5)</f>
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1595,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5" si="1">CORREL(B5:AG5,B6:AG6)</f>
+        <f t="shared" ref="AI5:AI62" si="0">CORREL(B5:AG5,B6:AG6)</f>
         <v>0.75</v>
       </c>
     </row>
@@ -1699,6 +1707,10 @@
       <c r="AG6">
         <v>1</v>
       </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1801,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" ref="AI7" si="2">CORREL(B7:AG7,B8:AG8)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -1905,6 +1917,10 @@
       <c r="AG8">
         <v>0</v>
       </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2007,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="AI9">
-        <f t="shared" ref="AI9" si="3">CORREL(B9:AG9,B10:AG10)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -2111,6 +2127,10 @@
       <c r="AG10">
         <v>1</v>
       </c>
+      <c r="AI10">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2213,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="AI11">
-        <f t="shared" ref="AI11" si="4">CORREL(B11:AG11,B12:AG12)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -2317,6 +2337,10 @@
       <c r="AG12">
         <v>1</v>
       </c>
+      <c r="AI12">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2419,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" ref="AI13" si="5">CORREL(B13:AG13,B14:AG14)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -2523,6 +2547,10 @@
       <c r="AG14">
         <v>0</v>
       </c>
+      <c r="AI14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2625,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" ref="AI15" si="6">CORREL(B15:AG15,B16:AG16)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -2729,6 +2757,10 @@
       <c r="AG16">
         <v>0</v>
       </c>
+      <c r="AI16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2831,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="AI17">
-        <f t="shared" ref="AI17" si="7">CORREL(B17:AG17,B18:AG18)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -2935,6 +2967,10 @@
       <c r="AG18">
         <v>1</v>
       </c>
+      <c r="AI18">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -3037,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="AI19">
-        <f t="shared" ref="AI19" si="8">CORREL(B19:AG19,B20:AG20)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -3141,6 +3177,10 @@
       <c r="AG20">
         <v>1</v>
       </c>
+      <c r="AI20">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -3243,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="AI21">
-        <f t="shared" ref="AI21" si="9">CORREL(B21:AG21,B22:AG22)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -3347,6 +3387,10 @@
       <c r="AG22">
         <v>0</v>
       </c>
+      <c r="AI22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -3449,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="AI23">
-        <f t="shared" ref="AI23" si="10">CORREL(B23:AG23,B24:AG24)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -3553,6 +3597,10 @@
       <c r="AG24">
         <v>1</v>
       </c>
+      <c r="AI24">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -3655,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <f t="shared" ref="AI25" si="11">CORREL(B25:AG25,B26:AG26)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -3759,6 +3807,10 @@
       <c r="AG26">
         <v>0</v>
       </c>
+      <c r="AI26">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -3861,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <f t="shared" ref="AI27" si="12">CORREL(B27:AG27,B28:AG28)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -3965,6 +4017,10 @@
       <c r="AG28">
         <v>0</v>
       </c>
+      <c r="AI28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -4067,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="AI29">
-        <f t="shared" ref="AI29" si="13">CORREL(B29:AG29,B30:AG30)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -4171,6 +4227,10 @@
       <c r="AG30">
         <v>1</v>
       </c>
+      <c r="AI30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -4273,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <f t="shared" ref="AI31" si="14">CORREL(B31:AG31,B32:AG32)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -4377,6 +4437,10 @@
       <c r="AG32">
         <v>0</v>
       </c>
+      <c r="AI32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -4479,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="AI33">
-        <f t="shared" ref="AI33" si="15">CORREL(B33:AG33,B34:AG34)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -4583,6 +4647,10 @@
       <c r="AG34">
         <v>1</v>
       </c>
+      <c r="AI34">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -4685,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="AI35">
-        <f t="shared" ref="AI35" si="16">CORREL(B35:AG35,B36:AG36)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -4789,6 +4857,10 @@
       <c r="AG36">
         <v>1</v>
       </c>
+      <c r="AI36">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -4891,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <f t="shared" ref="AI37" si="17">CORREL(B37:AG37,B38:AG38)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -4995,6 +5067,10 @@
       <c r="AG38">
         <v>0</v>
       </c>
+      <c r="AI38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -5097,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="AI39">
-        <f t="shared" ref="AI39" si="18">CORREL(B39:AG39,B40:AG40)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -5201,6 +5277,10 @@
       <c r="AG40">
         <v>1</v>
       </c>
+      <c r="AI40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -5303,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <f t="shared" ref="AI41" si="19">CORREL(B41:AG41,B42:AG42)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -5407,6 +5487,10 @@
       <c r="AG42">
         <v>0</v>
       </c>
+      <c r="AI42">
+        <f t="shared" si="0"/>
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -5509,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43" si="20">CORREL(B43:AG43,B44:AG44)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -5613,6 +5697,10 @@
       <c r="AG44">
         <v>0</v>
       </c>
+      <c r="AI44">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -5715,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="AI45">
-        <f t="shared" ref="AI45" si="21">CORREL(B45:AG45,B46:AG46)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -5819,6 +5907,10 @@
       <c r="AG46">
         <v>1</v>
       </c>
+      <c r="AI46">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -5921,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="AI47">
-        <f t="shared" ref="AI47" si="22">CORREL(B47:AG47,B48:AG48)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -6025,6 +6117,10 @@
       <c r="AG48">
         <v>1</v>
       </c>
+      <c r="AI48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -6127,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <f t="shared" ref="AI49" si="23">CORREL(B49:AG49,B50:AG50)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -6231,6 +6327,10 @@
       <c r="AG50">
         <v>0</v>
       </c>
+      <c r="AI50">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -6333,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <f t="shared" ref="AI51" si="24">CORREL(B51:AG51,B52:AG52)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -6437,6 +6537,10 @@
       <c r="AG52">
         <v>0</v>
       </c>
+      <c r="AI52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -6539,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="AI53">
-        <f t="shared" ref="AI53" si="25">CORREL(B53:AG53,B54:AG54)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -6643,6 +6747,10 @@
       <c r="AG54">
         <v>1</v>
       </c>
+      <c r="AI54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -6745,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <f t="shared" ref="AI55" si="26">CORREL(B55:AG55,B56:AG56)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -6849,6 +6957,10 @@
       <c r="AG56">
         <v>0</v>
       </c>
+      <c r="AI56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -6951,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="AI57">
-        <f t="shared" ref="AI57" si="27">CORREL(B57:AG57,B58:AG58)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -7055,6 +7167,10 @@
       <c r="AG58">
         <v>1</v>
       </c>
+      <c r="AI58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -7157,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="AI59">
-        <f t="shared" ref="AI59" si="28">CORREL(B59:AG59,B60:AG60)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -7261,6 +7377,10 @@
       <c r="AG60">
         <v>1</v>
       </c>
+      <c r="AI60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -7363,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="AI61">
-        <f t="shared" ref="AI61" si="29">CORREL(B61:AG61,B62:AG62)</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -7467,6 +7587,10 @@
       <c r="AG62">
         <v>0</v>
       </c>
+      <c r="AI62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -7569,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="AI63">
-        <f t="shared" ref="AI63" si="30">CORREL(B63:AG63,B64:AG64)</f>
+        <f t="shared" ref="AI63" si="1">CORREL(B63:AG63,B64:AG64)</f>
         <v>-6.6666666666666652E-2</v>
       </c>
     </row>
@@ -7683,8 +7807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3119604E-45F9-F843-A903-89D0570F901C}">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
